--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema5a-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema5a-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sema5a</t>
   </si>
   <si>
     <t>Met</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5290683333333334</v>
+        <v>0.4993116666666666</v>
       </c>
       <c r="H2">
-        <v>1.587205</v>
+        <v>1.497935</v>
       </c>
       <c r="I2">
-        <v>0.01267142171338989</v>
+        <v>0.01118655668236004</v>
       </c>
       <c r="J2">
-        <v>0.01267142171338989</v>
+        <v>0.01118655668236004</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.655851666666667</v>
+        <v>2.839339666666666</v>
       </c>
       <c r="N2">
-        <v>4.967555</v>
+        <v>8.518018999999999</v>
       </c>
       <c r="O2">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297667</v>
       </c>
       <c r="P2">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297665</v>
       </c>
       <c r="Q2">
-        <v>0.8760586815305557</v>
+        <v>1.417715421196111</v>
       </c>
       <c r="R2">
-        <v>7.884528133775001</v>
+        <v>12.759438790765</v>
       </c>
       <c r="S2">
-        <v>0.0004597461914186715</v>
+        <v>0.0008453851731879399</v>
       </c>
       <c r="T2">
-        <v>0.0004597461914186715</v>
+        <v>0.0008453851731879397</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5290683333333334</v>
+        <v>0.4993116666666666</v>
       </c>
       <c r="H3">
-        <v>1.587205</v>
+        <v>1.497935</v>
       </c>
       <c r="I3">
-        <v>0.01267142171338989</v>
+        <v>0.01118655668236004</v>
       </c>
       <c r="J3">
-        <v>0.01267142171338989</v>
+        <v>0.01118655668236004</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.249148</v>
       </c>
       <c r="O3">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="P3">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="Q3">
-        <v>0.7493632168155555</v>
+        <v>0.7072163899311109</v>
       </c>
       <c r="R3">
-        <v>6.74426895134</v>
+        <v>6.364947509379999</v>
       </c>
       <c r="S3">
-        <v>0.0003932577716349924</v>
+        <v>0.0004217138653812804</v>
       </c>
       <c r="T3">
-        <v>0.0003932577716349925</v>
+        <v>0.0004217138653812804</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5290683333333334</v>
+        <v>0.4993116666666666</v>
       </c>
       <c r="H4">
-        <v>1.587205</v>
+        <v>1.497935</v>
       </c>
       <c r="I4">
-        <v>0.01267142171338989</v>
+        <v>0.01118655668236004</v>
       </c>
       <c r="J4">
-        <v>0.01267142171338989</v>
+        <v>0.01118655668236004</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.180664</v>
+        <v>32.04516333333333</v>
       </c>
       <c r="N4">
-        <v>111.541992</v>
+        <v>96.13549</v>
       </c>
       <c r="O4">
-        <v>0.8146827249445348</v>
+        <v>0.852910260297995</v>
       </c>
       <c r="P4">
-        <v>0.8146827249445348</v>
+        <v>0.8529102602979949</v>
       </c>
       <c r="Q4">
-        <v>19.67111193470667</v>
+        <v>16.00052391257222</v>
       </c>
       <c r="R4">
-        <v>177.04000741236</v>
+        <v>144.00471521315</v>
       </c>
       <c r="S4">
-        <v>0.01032318837038582</v>
+        <v>0.009541128971789976</v>
       </c>
       <c r="T4">
-        <v>0.01032318837038582</v>
+        <v>0.009541128971789974</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5290683333333334</v>
+        <v>0.4993116666666666</v>
       </c>
       <c r="H5">
-        <v>1.587205</v>
+        <v>1.497935</v>
       </c>
       <c r="I5">
-        <v>0.01267142171338989</v>
+        <v>0.01118655668236004</v>
       </c>
       <c r="J5">
-        <v>0.01267142171338989</v>
+        <v>0.01118655668236004</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.385314999999999</v>
+        <v>1.270667666666667</v>
       </c>
       <c r="N5">
-        <v>16.155945</v>
+        <v>3.812003</v>
       </c>
       <c r="O5">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="P5">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="Q5">
-        <v>2.849199631525</v>
+        <v>0.6344591904227777</v>
       </c>
       <c r="R5">
-        <v>25.642796683725</v>
+        <v>5.710132713804999</v>
       </c>
       <c r="S5">
-        <v>0.001495229379950404</v>
+        <v>0.0003783286720008428</v>
       </c>
       <c r="T5">
-        <v>0.001495229379950404</v>
+        <v>0.0003783286720008428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>96.149158</v>
       </c>
       <c r="I6">
-        <v>0.7676050216609417</v>
+        <v>0.718040506382581</v>
       </c>
       <c r="J6">
-        <v>0.7676050216609416</v>
+        <v>0.7180405063825809</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.655851666666667</v>
+        <v>2.839339666666666</v>
       </c>
       <c r="N6">
-        <v>4.967555</v>
+        <v>8.518018999999999</v>
       </c>
       <c r="O6">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297667</v>
       </c>
       <c r="P6">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297665</v>
       </c>
       <c r="Q6">
-        <v>53.0695811742989</v>
+        <v>91.00003940866688</v>
       </c>
       <c r="R6">
-        <v>477.62623056869</v>
+        <v>819.0003546780019</v>
       </c>
       <c r="S6">
-        <v>0.02785034648870946</v>
+        <v>0.05426341769683238</v>
       </c>
       <c r="T6">
-        <v>0.02785034648870945</v>
+        <v>0.05426341769683236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>96.149158</v>
       </c>
       <c r="I7">
-        <v>0.7676050216609417</v>
+        <v>0.718040506382581</v>
       </c>
       <c r="J7">
-        <v>0.7676050216609416</v>
+        <v>0.7180405063825809</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.249148</v>
       </c>
       <c r="O7">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="P7">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="Q7">
         <v>45.39466693526489</v>
@@ -883,10 +883,10 @@
         <v>408.552002417384</v>
       </c>
       <c r="S7">
-        <v>0.02382263388765837</v>
+        <v>0.02706888688316614</v>
       </c>
       <c r="T7">
-        <v>0.02382263388765837</v>
+        <v>0.02706888688316613</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>96.149158</v>
       </c>
       <c r="I8">
-        <v>0.7676050216609417</v>
+        <v>0.718040506382581</v>
       </c>
       <c r="J8">
-        <v>0.7676050216609416</v>
+        <v>0.7180405063825809</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.180664</v>
+        <v>32.04516333333333</v>
       </c>
       <c r="N8">
-        <v>111.541992</v>
+        <v>96.13549</v>
       </c>
       <c r="O8">
-        <v>0.8146827249445348</v>
+        <v>0.852910260297995</v>
       </c>
       <c r="P8">
-        <v>0.8146827249445348</v>
+        <v>0.8529102602979949</v>
       </c>
       <c r="Q8">
-        <v>1191.629845826971</v>
+        <v>1027.038490824158</v>
       </c>
       <c r="R8">
-        <v>10724.66861244274</v>
+        <v>9243.346417417421</v>
       </c>
       <c r="S8">
-        <v>0.6253545507278446</v>
+        <v>0.6124241152032713</v>
       </c>
       <c r="T8">
-        <v>0.6253545507278445</v>
+        <v>0.6124241152032711</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>96.149158</v>
       </c>
       <c r="I9">
-        <v>0.7676050216609417</v>
+        <v>0.718040506382581</v>
       </c>
       <c r="J9">
-        <v>0.7676050216609416</v>
+        <v>0.7180405063825809</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.385314999999999</v>
+        <v>1.270667666666667</v>
       </c>
       <c r="N9">
-        <v>16.155945</v>
+        <v>3.812003</v>
       </c>
       <c r="O9">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="P9">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="Q9">
-        <v>172.59783427159</v>
+        <v>40.72454208260822</v>
       </c>
       <c r="R9">
-        <v>1553.38050844431</v>
+        <v>366.520878743474</v>
       </c>
       <c r="S9">
-        <v>0.09057749055672923</v>
+        <v>0.02428408659931119</v>
       </c>
       <c r="T9">
-        <v>0.09057749055672923</v>
+        <v>0.02428408659931119</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.174090999999999</v>
+        <v>12.08377133333333</v>
       </c>
       <c r="H10">
-        <v>27.522273</v>
+        <v>36.251314</v>
       </c>
       <c r="I10">
-        <v>0.2197235566256685</v>
+        <v>0.2707242830102989</v>
       </c>
       <c r="J10">
-        <v>0.2197235566256685</v>
+        <v>0.2707242830102989</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.655851666666667</v>
+        <v>2.839339666666666</v>
       </c>
       <c r="N10">
-        <v>4.967555</v>
+        <v>8.518018999999999</v>
       </c>
       <c r="O10">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297667</v>
       </c>
       <c r="P10">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297665</v>
       </c>
       <c r="Q10">
-        <v>15.19093387250166</v>
+        <v>34.30993126966288</v>
       </c>
       <c r="R10">
-        <v>136.718404852515</v>
+        <v>308.789381426966</v>
       </c>
       <c r="S10">
-        <v>0.007972039018863305</v>
+        <v>0.02045904753155537</v>
       </c>
       <c r="T10">
-        <v>0.007972039018863305</v>
+        <v>0.02045904753155537</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.174090999999999</v>
+        <v>12.08377133333333</v>
       </c>
       <c r="H11">
-        <v>27.522273</v>
+        <v>36.251314</v>
       </c>
       <c r="I11">
-        <v>0.2197235566256685</v>
+        <v>0.2707242830102989</v>
       </c>
       <c r="J11">
-        <v>0.2197235566256685</v>
+        <v>0.2707242830102989</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.249148</v>
       </c>
       <c r="O11">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="P11">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="Q11">
-        <v>12.99402347482267</v>
+        <v>17.11524426449689</v>
       </c>
       <c r="R11">
-        <v>116.946211273404</v>
+        <v>154.037198380472</v>
       </c>
       <c r="S11">
-        <v>0.006819124026392253</v>
+        <v>0.01020583787153016</v>
       </c>
       <c r="T11">
-        <v>0.006819124026392255</v>
+        <v>0.01020583787153016</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.174090999999999</v>
+        <v>12.08377133333333</v>
       </c>
       <c r="H12">
-        <v>27.522273</v>
+        <v>36.251314</v>
       </c>
       <c r="I12">
-        <v>0.2197235566256685</v>
+        <v>0.2707242830102989</v>
       </c>
       <c r="J12">
-        <v>0.2197235566256685</v>
+        <v>0.2707242830102989</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.180664</v>
+        <v>32.04516333333333</v>
       </c>
       <c r="N12">
-        <v>111.541992</v>
+        <v>96.13549</v>
       </c>
       <c r="O12">
-        <v>0.8146827249445348</v>
+        <v>0.852910260297995</v>
       </c>
       <c r="P12">
-        <v>0.8146827249445348</v>
+        <v>0.8529102602979949</v>
       </c>
       <c r="Q12">
-        <v>341.098794976424</v>
+        <v>387.2264260593178</v>
       </c>
       <c r="R12">
-        <v>3069.889154787816</v>
+        <v>3485.03783453386</v>
       </c>
       <c r="S12">
-        <v>0.1790049858463044</v>
+        <v>0.2309035186913021</v>
       </c>
       <c r="T12">
-        <v>0.1790049858463044</v>
+        <v>0.2309035186913021</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12.08377133333333</v>
+      </c>
+      <c r="H13">
+        <v>36.251314</v>
+      </c>
+      <c r="I13">
+        <v>0.2707242830102989</v>
+      </c>
+      <c r="J13">
+        <v>0.2707242830102989</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.270667666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.812003</v>
+      </c>
+      <c r="O13">
+        <v>0.03381993966002293</v>
+      </c>
+      <c r="P13">
+        <v>0.03381993966002293</v>
+      </c>
+      <c r="Q13">
+        <v>15.35445752466022</v>
+      </c>
+      <c r="R13">
+        <v>138.190117721942</v>
+      </c>
+      <c r="S13">
+        <v>0.009155878915911278</v>
+      </c>
+      <c r="T13">
+        <v>0.00915587891591128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>9.174090999999999</v>
-      </c>
-      <c r="H13">
-        <v>27.522273</v>
-      </c>
-      <c r="I13">
-        <v>0.2197235566256685</v>
-      </c>
-      <c r="J13">
-        <v>0.2197235566256685</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.385314999999999</v>
-      </c>
-      <c r="N13">
-        <v>16.155945</v>
-      </c>
-      <c r="O13">
-        <v>0.1180001276707882</v>
-      </c>
-      <c r="P13">
-        <v>0.1180001276707882</v>
-      </c>
-      <c r="Q13">
-        <v>49.40536987366499</v>
-      </c>
-      <c r="R13">
-        <v>444.648328862985</v>
-      </c>
-      <c r="S13">
-        <v>0.02592740773410853</v>
-      </c>
-      <c r="T13">
-        <v>0.02592740773410854</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.002171666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.006515</v>
+      </c>
+      <c r="I14">
+        <v>4.86539247601369E-05</v>
+      </c>
+      <c r="J14">
+        <v>4.86539247601369E-05</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.839339666666666</v>
+      </c>
+      <c r="N14">
+        <v>8.518018999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.07557152725297667</v>
+      </c>
+      <c r="P14">
+        <v>0.07557152725297665</v>
+      </c>
+      <c r="Q14">
+        <v>0.006166099309444444</v>
+      </c>
+      <c r="R14">
+        <v>0.05549489378499999</v>
+      </c>
+      <c r="S14">
+        <v>3.676851400974962E-06</v>
+      </c>
+      <c r="T14">
+        <v>3.676851400974961E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.002171666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.006515</v>
+      </c>
+      <c r="I15">
+        <v>4.86539247601369E-05</v>
+      </c>
+      <c r="J15">
+        <v>4.86539247601369E-05</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.416382666666667</v>
+      </c>
+      <c r="N15">
+        <v>4.249148</v>
+      </c>
+      <c r="O15">
+        <v>0.03769827278900544</v>
+      </c>
+      <c r="P15">
+        <v>0.03769827278900544</v>
+      </c>
+      <c r="Q15">
+        <v>0.003075911024444444</v>
+      </c>
+      <c r="R15">
+        <v>0.02768319922</v>
+      </c>
+      <c r="S15">
+        <v>1.834168927863387E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.834168927863387E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.002171666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.006515</v>
+      </c>
+      <c r="I16">
+        <v>4.86539247601369E-05</v>
+      </c>
+      <c r="J16">
+        <v>4.86539247601369E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>32.04516333333333</v>
+      </c>
+      <c r="N16">
+        <v>96.13549</v>
+      </c>
+      <c r="O16">
+        <v>0.852910260297995</v>
+      </c>
+      <c r="P16">
+        <v>0.8529102602979949</v>
+      </c>
+      <c r="Q16">
+        <v>0.0695914130388889</v>
+      </c>
+      <c r="R16">
+        <v>0.62632271735</v>
+      </c>
+      <c r="S16">
+        <v>4.149743163168742E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.149743163168742E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.002171666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.006515</v>
+      </c>
+      <c r="I17">
+        <v>4.86539247601369E-05</v>
+      </c>
+      <c r="J17">
+        <v>4.86539247601369E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.270667666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.812003</v>
+      </c>
+      <c r="O17">
+        <v>0.03381993966002293</v>
+      </c>
+      <c r="P17">
+        <v>0.03381993966002293</v>
+      </c>
+      <c r="Q17">
+        <v>0.002759466616111111</v>
+      </c>
+      <c r="R17">
+        <v>0.024835199545</v>
+      </c>
+      <c r="S17">
+        <v>1.645472799611125E-06</v>
+      </c>
+      <c r="T17">
+        <v>1.645472799611125E-06</v>
       </c>
     </row>
   </sheetData>
